--- a/Weights.xlsx
+++ b/Weights.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -501,6 +501,9 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -593,6 +596,9 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
